--- a/数据整理/stocks/A股/上证主板/600872-中炬高新.xlsx
+++ b/数据整理/stocks/A股/上证主板/600872-中炬高新.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3023,4 +3024,932 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>287.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.2931</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4951</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3617</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2698</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005550</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005551</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005168</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银新征程定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>45.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600872-中炬高新.xlsx
+++ b/数据整理/stocks/A股/上证主板/600872-中炬高新.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3952,4 +3953,324 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0182</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600872-中炬高新.xlsx
+++ b/数据整理/stocks/A股/上证主板/600872-中炬高新.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4273,4 +4274,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600872-中炬高新.xlsx
+++ b/数据整理/stocks/A股/上证主板/600872-中炬高新.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4282,7 +4283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4293,17 +4294,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4313,14 +4334,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4083</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.35</v>
       </c>
     </row>
     <row r="3">
@@ -4329,14 +4372,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.12</v>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2156</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4345,14 +4410,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.72</v>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7965</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4361,13 +4448,1403 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4431</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001358</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>49.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>33.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>52.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012667</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融景泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012911</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>33.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007575</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012668</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融景泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>49.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012912</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>33.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>45</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>21.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600872-中炬高新.xlsx
+++ b/数据整理/stocks/A股/上证主板/600872-中炬高新.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5743,7 +5744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5754,17 +5755,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5774,14 +5795,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.01</v>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7521</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5790,14 +5833,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.35</v>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2469</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5806,14 +5871,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.12</v>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -5822,14 +5909,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22.72</v>
+          <t>009419</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5838,13 +5947,737 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006398</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011736</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>35.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>41.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011737</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>35.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006399</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>41.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>64.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009420</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>45</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>21.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600872-中炬高新.xlsx
+++ b/数据整理/stocks/A股/上证主板/600872-中炬高新.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6560,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6571,17 +6572,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6591,14 +6612,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.23</v>
+          <t>009419</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3829</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -6607,14 +6650,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.01</v>
+          <t>006398</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -6623,14 +6688,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.35</v>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6639,14 +6726,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.12</v>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>48.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -6655,14 +6764,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>22.72</v>
+          <t>011736</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>42.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -6671,13 +6802,1243 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>50.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012772</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>48.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>42.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005317</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011737</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>42.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>43.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006399</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>47.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>50.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009420</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>42.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005318</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>43.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>47.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>22.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>45</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>21.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600872-中炬高新.xlsx
+++ b/数据整理/stocks/A股/上证主板/600872-中炬高新.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>1.85</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>2.23</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>6.01</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>1.35</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>17.12</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>22.72</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22.72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>45</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>21.55</v>
       </c>
     </row>
@@ -600,6 +617,1770 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>139.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8244</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银农业产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳精华配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011687</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达龙头优选两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012772</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信澳精华配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014864</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014017</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011688</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达龙头优选两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>惠升惠益混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015741</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>惠升惠益混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>64.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>62.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015742</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1943,7 +3724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2759,7 +4540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4219,7 +6000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4539,7 +6320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5467,7 +7248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6283,7 +8064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600872-中炬高新.xlsx
+++ b/数据整理/stocks/A股/上证主板/600872-中炬高新.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="D2" t="n">
-        <v>2.89</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>1.85</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>2.23</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>6.01</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>1.35</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>17.12</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>22.72</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>45</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>21.55</v>
       </c>
     </row>
@@ -616,7 +633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -643,7 +660,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -673,36 +690,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>009556</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方宝元债券A</t>
+          <t>兴全合丰三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>139.73</t>
+          <t>85.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28.99</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8244</t>
+          <t>6.1990</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +728,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000551</t>
+          <t>340007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信诚幸福消费混合</t>
+          <t>兴全社会责任混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>72.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.23</t>
+          <t>93.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2267</t>
+          <t>5.1505</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +766,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001195</t>
+          <t>213008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银农业产业股票</t>
+          <t>宝盈资源优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>21.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.67</t>
+          <t>89.57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2007</t>
+          <t>1.7839</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +804,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>610002</t>
+          <t>360016</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信澳精华配置混合A</t>
+          <t>光大保德信行业轮动混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>25.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80.39</t>
+          <t>87.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1866</t>
+          <t>1.6052</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +842,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009476</t>
+          <t>009564</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信食品饮料行业股票A</t>
+          <t>汇安消费龙头混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>24.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>91.87</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1806</t>
+          <t>0.7970</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +880,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014016</t>
+          <t>001631</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中信建投品质优选一年持有期混合A</t>
+          <t>天弘中证食品饮料指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>42.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.84</t>
+          <t>94.06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1027</t>
+          <t>0.7166</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +918,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008347</t>
+          <t>001632</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合A</t>
+          <t>天弘中证食品饮料指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>38.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76.99</t>
+          <t>94.06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0983</t>
+          <t>0.6353</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +956,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011698</t>
+          <t>952035</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方均衡回报混合A</t>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>12.60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>49.31</t>
+          <t>82.90</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0877</t>
+          <t>0.5519</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +994,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011687</t>
+          <t>233007</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达龙头优选两年持有混合A</t>
+          <t>大摩卓越成长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>93.25</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0842</t>
+          <t>0.4407</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1015,32 +1032,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008209</t>
+          <t>001047</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方宝泰一年持有期混合A</t>
+          <t>光大保德信国企改革主题股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25.39</t>
+          <t>88.05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0835</t>
+          <t>0.4274</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1053,36 +1070,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003822</t>
+          <t>006648</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中信建投行业轮换混合A</t>
+          <t>汇安多因子混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>15.35</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>77.97</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0790</t>
+          <t>0.4206</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1091,32 +1108,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>012772</t>
+          <t>001027</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>信澳精华配置混合C</t>
+          <t>前海开源中证大农业指数增强</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>80.39</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0788</t>
+          <t>0.2926</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1129,36 +1146,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001601</t>
+          <t>008185</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鑫元鑫新收益灵活配置混合A</t>
+          <t>诺安研究优选混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>62.08</t>
+          <t>94.94</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0719</t>
+          <t>0.2925</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1167,36 +1184,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006585</t>
+          <t>006430</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方宝元债券C</t>
+          <t>凯石澜龙头经济定期开放混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>28.99</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0650</t>
+          <t>0.2362</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1205,32 +1222,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>870017</t>
+          <t>001543</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发资管消费精选灵活配置混合</t>
+          <t>宝盈新锐灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>74.82</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0614</t>
+          <t>0.1961</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1243,36 +1260,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008840</t>
+          <t>002773</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>德邦大消费混合A</t>
+          <t>光大保德信铭鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.05</t>
+          <t>88.20</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0444</t>
+          <t>0.1779</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1281,36 +1298,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008348</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合C</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>76.99</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0404</t>
+          <t>0.1733</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1319,36 +1336,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>014864</t>
+          <t>233001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>建信食品饮料行业股票C</t>
+          <t>大摩基础行业混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>79.85</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0358</t>
+          <t>0.1487</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1357,36 +1374,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>014017</t>
+          <t>000309</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中信建投品质优选一年持有期混合C</t>
+          <t>大摩品质生活精选股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>85.84</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0288</t>
+          <t>0.1435</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1395,36 +1412,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008336</t>
+          <t>510630</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>宝盈祥裕增强回报混合A</t>
+          <t>华夏上证主要消费ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24.96</t>
+          <t>99.59</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.1234</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1433,36 +1450,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008841</t>
+          <t>002472</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>德邦大消费混合C</t>
+          <t>光大保德信先进服务业灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>90.05</t>
+          <t>84.88</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0235</t>
+          <t>0.1197</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1471,36 +1488,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003823</t>
+          <t>001463</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中信建投行业轮换混合C</t>
+          <t>光大保德信一带一路战略主题混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>77.97</t>
+          <t>89.06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.1178</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1509,36 +1526,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>011073</t>
+          <t>006649</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鹏华安润混合A</t>
+          <t>汇安多因子混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>25.50</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0210</t>
+          <t>0.1055</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1547,36 +1564,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>007277</t>
+          <t>233008</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恒生前海消费升级混合</t>
+          <t>大摩消费领航混合基金</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>82.28</t>
+          <t>79.84</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0210</t>
+          <t>0.0906</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1585,36 +1602,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>011688</t>
+          <t>080015</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>易方达龙头优选两年持有混合C</t>
+          <t>长盛中小盘精选混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>86.17</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0204</t>
+          <t>0.0903</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1623,36 +1640,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>004332</t>
+          <t>009440</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恒生前海沪港深新兴产业精选混合</t>
+          <t>光大保德信裕鑫混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>92.74</t>
+          <t>20.98</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0203</t>
+          <t>0.0772</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1661,36 +1678,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>200016</t>
+          <t>001464</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>长城稳健成长灵活配置混合</t>
+          <t>光大保德信鼎鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>79.86</t>
+          <t>23.48</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0157</t>
+          <t>0.0741</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1699,36 +1716,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>011536</t>
+          <t>003105</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>惠升惠益混合A</t>
+          <t>光大保德信永鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>21.48</t>
+          <t>23.06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0141</t>
+          <t>0.0718</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1737,36 +1754,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>007468</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中信建投策略精选混合A</t>
+          <t>宝盈优势产业灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>81.86</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0714</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1775,36 +1792,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005949</t>
+          <t>002640</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鑫元行业轮动灵活配置混合A</t>
+          <t>中信建投睿溢混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>53.61</t>
+          <t>28.33</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0138</t>
+          <t>0.0401</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1813,36 +1830,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008178</t>
+          <t>001823</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>同泰慧盈混合A</t>
+          <t>光大保德信鼎鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>23.48</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0133</t>
+          <t>0.0372</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1851,36 +1868,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>008210</t>
+          <t>001569</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>南方宝泰一年持有期混合C</t>
+          <t>泰信国策驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>25.39</t>
+          <t>88.97</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.0369</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1889,36 +1906,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>004189</t>
+          <t>002774</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华商消费行业股票</t>
+          <t>光大保德信铭鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>80.75</t>
+          <t>88.20</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0108</t>
+          <t>0.0194</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -1927,36 +1944,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>008179</t>
+          <t>610007</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>同泰慧盈混合C</t>
+          <t>信达澳银消费优选混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1965,12 +1982,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>007469</t>
+          <t>005851</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中信建投策略精选混合C</t>
+          <t>财通新视野灵活配置混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1980,21 +1997,21 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>81.86</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -2003,36 +2020,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>015741</t>
+          <t>009565</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>东财品质生活优选混合A</t>
+          <t>汇安消费龙头混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>91.87</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -2041,36 +2058,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>011701</t>
+          <t>004276</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>南方均衡回报混合C</t>
+          <t>浦银安盛安和回报定期开放混合A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>49.31</t>
+          <t>22.05</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2079,36 +2096,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>011537</t>
+          <t>007578</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>惠升惠益混合C</t>
+          <t>宝盈新锐灵活配置混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>21.48</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2117,36 +2134,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>008337</t>
+          <t>005959</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>宝盈祥裕增强回报混合C</t>
+          <t>财通新视野灵活配置混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>24.96</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -2155,36 +2172,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>002303</t>
+          <t>004801</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>金鹰智慧生活灵活配置混合</t>
+          <t>浦银安盛安久回报定期开放混合A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>64.10</t>
+          <t>22.15</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -2193,36 +2210,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>001602</t>
+          <t>009441</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鑫元鑫新收益灵活配置混合C</t>
+          <t>光大保德信裕鑫混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>62.08</t>
+          <t>20.98</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -2231,36 +2248,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>011074</t>
+          <t>004277</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鹏华安润混合C</t>
+          <t>浦银安盛安和回报定期开放混合C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>25.50</t>
+          <t>22.05</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -2269,36 +2286,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>001657</t>
+          <t>006843</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>长安鑫富领先灵活配置混合</t>
+          <t>中信建投睿溢混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>49.60</t>
+          <t>28.33</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -2307,36 +2324,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>015742</t>
+          <t>003106</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>东财品质生活优选混合C</t>
+          <t>光大保德信永鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>23.06</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -2345,12 +2362,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>005950</t>
+          <t>004802</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鑫元行业轮动灵活配置混合C</t>
+          <t>浦银安盛安久回报定期开放混合C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2360,19 +2377,3637 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>53.61</t>
+          <t>22.15</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2287</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3925</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3679</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2737</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2533</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>560010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015346</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2471</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014864</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>62.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159629</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>59.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2255</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银农业产业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159633</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013588</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银稳健瑞盈一年持有债券A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006398</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信澳精华配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>33.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014874</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>惠升惠远回报混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009419</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011736</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011687</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达龙头优选两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001385</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001384</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012772</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信澳精华配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013589</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银稳健瑞盈一年持有债券C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013347</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011004</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>永赢鑫盛混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>36.44</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011737</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011688</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达龙头优选两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>36.44</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>560110</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>65.70</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006399</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006712</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006713</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>惠升惠益混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>33.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>信澳消费优选混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015741</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004731</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>惠升惠益混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>33.57</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014875</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>惠升惠远回报混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004732</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015742</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>80.92</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015617</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>永赢卓越臻选股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009420</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>015618</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>永赢卓越臻选股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>015668</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>016033</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>017461</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>016234</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>财通景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2381,6 +6016,1770 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>139.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8244</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银农业产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳精华配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011687</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达龙头优选两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012772</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信澳精华配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014864</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014017</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011688</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达龙头优选两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>惠升惠益混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015741</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>惠升惠益混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>64.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>62.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015742</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3724,7 +9123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4540,7 +9939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6000,7 +11399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6320,7 +11719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7248,7 +12647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8062,1768 +13461,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009556</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴全合丰三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>85.74</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.1990</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>340007</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴全社会责任混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>72.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5.1505</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>213008</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈资源优选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.39</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.7839</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>360016</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>光大保德信行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>25.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.59</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.6052</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009564</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇安消费龙头混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>24.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7970</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001631</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘中证食品饮料指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>42.91</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7166</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001632</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>天弘中证食品饮料指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>38.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6353</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>952035</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰君安君得诚混合型集合资产管理计划</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.60</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>82.90</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5519</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>233007</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大摩卓越成长混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4407</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001047</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>光大保德信国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.05</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4274</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006648</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇安多因子混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>15.35</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4206</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001027</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源中证大农业指数增强</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2926</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008185</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>诺安研究优选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2925</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006430</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>凯石澜龙头经济定期开放混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2362</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001543</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>宝盈新锐灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1961</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002773</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>光大保德信铭鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>88.20</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1779</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>233006</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>大摩领先优势混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1733</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>233001</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>大摩基础行业混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>79.85</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1487</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>000309</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>大摩品质生活精选股票</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1435</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>510630</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华夏上证主要消费ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>99.59</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1234</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002472</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>光大保德信先进服务业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>84.88</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1197</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001463</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>光大保德信一带一路战略主题混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.06</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1178</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006649</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>汇安多因子混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1055</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>233008</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>大摩消费领航混合基金</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>79.84</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6.97</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0906</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>080015</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>长盛中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>86.17</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0903</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009440</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>光大保德信裕鑫混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>20.98</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0772</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001464</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>光大保德信鼎鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>23.48</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0741</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003105</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>光大保德信永鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>23.06</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0718</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001487</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>宝盈优势产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0714</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002640</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中信建投睿溢混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0401</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001823</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>光大保德信鼎鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>23.48</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0372</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001569</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>泰信国策驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>88.97</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0369</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>002774</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>光大保德信铭鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>88.20</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>610007</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>信达澳银消费优选混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>005851</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>009565</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>汇安消费龙头混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0125</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>004276</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>浦银安盛安和回报定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>22.05</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>007578</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>宝盈新锐灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>005959</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>004801</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>浦银安盛安久回报定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>22.15</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>009441</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>光大保德信裕鑫混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>20.98</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>004277</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>浦银安盛安和回报定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>22.05</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>006843</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>中信建投睿溢混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>003106</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>光大保德信永鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>23.06</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>004802</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>浦银安盛安久回报定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>22.15</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>